--- a/log/log_201608040110_刘奇.xlsx
+++ b/log/log_201608040110_刘奇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TANWANLANYUE\src\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TANWANLANYUE\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67749695-4598-45D5-B472-D9F0A9B67822}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86F5286C-56AB-4618-95AE-5B25A206F452}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -356,6 +356,42 @@
   </si>
   <si>
     <t>编写立项申请书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6/20日-6/23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加代码注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释添加完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6/24日-6/27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     7/1日-7/5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行项目总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -819,8 +855,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43271</v>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
@@ -829,6 +865,40 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
